--- a/data/ekstra.xlsx
+++ b/data/ekstra.xlsx
@@ -16,28 +16,17 @@
     <sheet name="2026 V" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="2026 H" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t xml:space="preserve">navn </t>
   </si>
@@ -72,12 +61,597 @@
     <t>workshop</t>
   </si>
   <si>
+    <t>Annen</t>
+  </si>
+  <si>
+    <t>Aaron Ponce</t>
+  </si>
+  <si>
+    <t>Adrian Farner Rogne</t>
+  </si>
+  <si>
+    <t>Agata Bochynska</t>
+  </si>
+  <si>
+    <t>Agnes Fauske</t>
+  </si>
+  <si>
+    <t>Agnes Louise Helleberg</t>
+  </si>
+  <si>
+    <t>Aleksander Årnes Madsen</t>
+  </si>
+  <si>
+    <t>Alexi Gugushvili</t>
+  </si>
+  <si>
+    <t>Alf Jørgen Schnell</t>
+  </si>
+  <si>
+    <t>Andrea Joslyn Nightingale</t>
+  </si>
+  <si>
+    <t>Andreas Forø Tollefsen</t>
+  </si>
+  <si>
+    <t>Andreea Ioana Alecu</t>
+  </si>
+  <si>
+    <t>Anette Marie Andresen</t>
+  </si>
+  <si>
+    <t>Anna Hov Smeby</t>
+  </si>
+  <si>
+    <t>Anne Krogstad</t>
+  </si>
+  <si>
+    <t>Anne Lise Ellingsæter</t>
+  </si>
+  <si>
+    <t>Anne Sæbø</t>
+  </si>
+  <si>
+    <t>Annica My Linn Allvin</t>
+  </si>
+  <si>
+    <t>Anniken Hagelund</t>
+  </si>
+  <si>
+    <t>Are Skeie Hermansen</t>
+  </si>
+  <si>
+    <t>Armine Bagiyan</t>
+  </si>
+  <si>
+    <t>Arnd Schneider</t>
+  </si>
+  <si>
+    <t>Arnfinn Haagensen Midtbøen</t>
+  </si>
+  <si>
+    <t>Arno Van Hootegem</t>
+  </si>
+  <si>
+    <t>Arve Hansen</t>
+  </si>
+  <si>
+    <t>Aseel Dima Jamale Ahmed Abuzeid</t>
+  </si>
+  <si>
+    <t>Axel Peter Kristensen</t>
+  </si>
+  <si>
+    <t>Beate Karlsen</t>
+  </si>
+  <si>
+    <t>Beatrice Irene Johannessen</t>
+  </si>
+  <si>
+    <t>Benedicte Bull</t>
+  </si>
+  <si>
+    <t>Benedicte Nordahl Berntsen</t>
+  </si>
+  <si>
+    <t>Bjørn Schiermer Andersen</t>
+  </si>
+  <si>
+    <t>Bjørnar Sæther</t>
+  </si>
+  <si>
+    <t>Byron Rom-Jensen</t>
+  </si>
+  <si>
+    <t>Camilla Houeland</t>
+  </si>
+  <si>
+    <t>Camilla Løvschall Langeland</t>
+  </si>
+  <si>
+    <t>Caroline Tveter Cros</t>
+  </si>
+  <si>
+    <t>Cathrine Holst</t>
+  </si>
+  <si>
+    <t>David Christoffer Jordhus-Lier</t>
+  </si>
+  <si>
+    <t>Edvard Nergård Larsen</t>
+  </si>
+  <si>
+    <t>Ege Akinci</t>
+  </si>
+  <si>
+    <t>Eirik Jerven Berger</t>
+  </si>
+  <si>
+    <t>Eirin Pedersen</t>
+  </si>
+  <si>
+    <t>Eivind Balsvik</t>
+  </si>
+  <si>
+    <t>Elias Nosrati</t>
+  </si>
+  <si>
+    <t>Elisa Brini</t>
+  </si>
+  <si>
+    <t>Elizabeth Anne Sibilia</t>
+  </si>
+  <si>
+    <t>Erik Carlquist</t>
+  </si>
+  <si>
+    <t>Erik Ludvig Sunnemark</t>
+  </si>
+  <si>
+    <t>Erlend Kok</t>
+  </si>
+  <si>
+    <t>Espen Ytreberg</t>
+  </si>
+  <si>
+    <t>Fred Abou-Alam</t>
+  </si>
+  <si>
+    <t>Fredrik Engelstad</t>
+  </si>
+  <si>
+    <t>Frøja Isabella Storm-Mathisen</t>
+  </si>
+  <si>
+    <t>Grace Eva Nicole Hovem</t>
+  </si>
+  <si>
+    <t>Grete Brochmann</t>
+  </si>
+  <si>
+    <t>Gunn Elisabeth Birkelund</t>
+  </si>
+  <si>
+    <t>Gunnar Bugge Helle</t>
+  </si>
+  <si>
+    <t>Haldor Byrkjeflot</t>
+  </si>
+  <si>
+    <t>Halvor Mehlum</t>
+  </si>
+  <si>
+    <t>Hannah Ander</t>
+  </si>
+  <si>
+    <t>Hannah Løke Kjos</t>
+  </si>
+  <si>
+    <t>Hannah Strøm Werkland</t>
+  </si>
+  <si>
+    <t>Hannah Waaler Koppang</t>
+  </si>
+  <si>
+    <t>Hanne Giskehaug</t>
+  </si>
+  <si>
+    <t>Hege Høyer Leivestad</t>
+  </si>
+  <si>
+    <t>Hege Merete Knutsen</t>
+  </si>
+  <si>
+    <t>Heidi Karlsen</t>
+  </si>
+  <si>
+    <t>Hilde Reinertsen</t>
+  </si>
+  <si>
+    <t>Håkon Larsen</t>
+  </si>
+  <si>
+    <t>Ida Drange</t>
+  </si>
+  <si>
+    <t>Ida Fagervold</t>
+  </si>
+  <si>
+    <t>Inga Sæther</t>
+  </si>
+  <si>
+    <t>Inger Furseth</t>
+  </si>
+  <si>
+    <t>Inger Marie Hagen</t>
+  </si>
+  <si>
+    <t>Ingjerd Hoem</t>
+  </si>
+  <si>
+    <t>Iselin Hewitt</t>
+  </si>
+  <si>
+    <t>Jan Erik Hovden</t>
+  </si>
+  <si>
+    <t>Jan Grue</t>
+  </si>
+  <si>
+    <t>Jason Miklian</t>
+  </si>
+  <si>
+    <t>Jemima Victoria Garcia-Godos Naveda</t>
+  </si>
+  <si>
+    <t>Jo Thori Lind</t>
+  </si>
+  <si>
+    <t>Joakim Johansen Østby</t>
+  </si>
+  <si>
+    <t>Johan Fredrik Rye</t>
+  </si>
+  <si>
+    <t>Johanne Ytri Dahl</t>
+  </si>
+  <si>
+    <t>John Nathaniel Parker</t>
+  </si>
+  <si>
+    <t>Jon Inge Faldalen</t>
+  </si>
+  <si>
+    <t>Jon Rasmus Nyquist</t>
+  </si>
+  <si>
+    <t>Julie Brevik Kolstad</t>
+  </si>
+  <si>
+    <t>Karoline Blix Hjelle</t>
+  </si>
+  <si>
+    <t>Katrine Fangen</t>
+  </si>
+  <si>
+    <t>Kenneth Bo Nielsen</t>
+  </si>
+  <si>
+    <t>Kirsten Ulsrud</t>
+  </si>
+  <si>
+    <t>Kjell Erling Kjellman</t>
+  </si>
+  <si>
+    <t>Kristian Stokke</t>
+  </si>
+  <si>
+    <t>Kristin Buvik</t>
+  </si>
+  <si>
+    <t>Kristine Therese Lervik Hansen</t>
+  </si>
+  <si>
+    <t>Laavanya Kathiravelu</t>
+  </si>
+  <si>
+    <t>Lars Emil Fagernes Johannessen</t>
+  </si>
+  <si>
+    <t>Lars Erik Kjekshus</t>
+  </si>
+  <si>
+    <t>Lars Klemsdal</t>
+  </si>
+  <si>
+    <t>Lars Mjøset</t>
+  </si>
+  <si>
+    <t>Laura Führer</t>
+  </si>
+  <si>
+    <t>Liridona Gashi</t>
+  </si>
+  <si>
+    <t>Magne Øyvind Paalgard Flemmen</t>
+  </si>
+  <si>
+    <t>Malin Opdal Ligård</t>
+  </si>
+  <si>
+    <t>Manjana Milkoreit</t>
+  </si>
+  <si>
+    <t>Marcin Sliwa</t>
+  </si>
+  <si>
+    <t>Maren Kristine Anmarkrud</t>
+  </si>
+  <si>
+    <t>Maren Ringstad</t>
+  </si>
+  <si>
+    <t>Maren Toft</t>
+  </si>
+  <si>
+    <t>Mari Teigen</t>
+  </si>
+  <si>
+    <t>Maria Krogshus Holmås</t>
+  </si>
+  <si>
+    <t>Marianne Elisabeth Lien</t>
+  </si>
+  <si>
+    <t>Marianne Nordli Hansen</t>
+  </si>
+  <si>
+    <t>Marieke Elisabeth Van Der Star</t>
+  </si>
+  <si>
+    <t>Marte Lund Saga</t>
+  </si>
+  <si>
+    <t>Marte Mangset</t>
+  </si>
+  <si>
+    <t>Martin Arstad Isungset</t>
+  </si>
+  <si>
+    <t>Matthew Flinders Kenneth Choi Schaeffer</t>
+  </si>
+  <si>
+    <t>Mette Andersson</t>
+  </si>
+  <si>
+    <t>Mia Sivertsen</t>
+  </si>
+  <si>
+    <t>Michael James Frith</t>
+  </si>
+  <si>
+    <t>Michael Paul Gentile</t>
+  </si>
+  <si>
+    <t>Nan Zou Bakkeli</t>
+  </si>
+  <si>
+    <t>Natalia Moen-Larsen</t>
+  </si>
+  <si>
+    <t>Nora Céline Warholm Essahli</t>
+  </si>
+  <si>
+    <t>Ole Ronel Stout</t>
+  </si>
+  <si>
+    <t>Olle Törnquist</t>
+  </si>
+  <si>
+    <t>Ove Solum</t>
+  </si>
+  <si>
+    <t>Patrick Lie Andersen</t>
+  </si>
+  <si>
+    <t>Per Gunnar Røe</t>
+  </si>
+  <si>
+    <t>Peris Sean Jones</t>
+  </si>
+  <si>
+    <t>Ragnhild Steen Jensen</t>
+  </si>
+  <si>
+    <t>Ragnhild Sundsbak</t>
+  </si>
+  <si>
+    <t>Randi Solhjell</t>
+  </si>
+  <si>
+    <t>Rannveig Kaldager Hart</t>
+  </si>
+  <si>
+    <t>Rasmus Skage Jensen</t>
+  </si>
+  <si>
+    <t>Rolf Reber</t>
+  </si>
+  <si>
+    <t>Runar Forsetløkken</t>
+  </si>
+  <si>
+    <t>Rune Flikke</t>
+  </si>
+  <si>
+    <t>Russell Garner</t>
+  </si>
+  <si>
+    <t>Ruth Eva Jørgensen</t>
+  </si>
+  <si>
+    <t>Sabina Tica</t>
+  </si>
+  <si>
+    <t>Sandra Ramsøy</t>
+  </si>
+  <si>
+    <t>Selma Sofia Forfod Yssen</t>
+  </si>
+  <si>
+    <t>Sigrun Marie Moss</t>
+  </si>
+  <si>
+    <t>Sigurd Martin Nordli Oppegaard</t>
+  </si>
+  <si>
+    <t>Silje Alnes</t>
+  </si>
+  <si>
+    <t>Silje Anderdal Bakken</t>
+  </si>
+  <si>
+    <t>Simon Roland Birkvad</t>
+  </si>
+  <si>
+    <t>Siri Adele Langaas Berg</t>
+  </si>
+  <si>
+    <t>Sjur Gausemel Stølen</t>
+  </si>
+  <si>
+    <t>Solveig Topstad Borgen</t>
+  </si>
+  <si>
+    <t>Solveig Wiland Gruenke</t>
+  </si>
+  <si>
+    <t>Sturla Flåten Jørgensen</t>
+  </si>
+  <si>
+    <t>Sveing Sandberg</t>
+  </si>
+  <si>
+    <t>Sveinung Sandberg</t>
+  </si>
+  <si>
+    <t>Sverre Johan Herstad</t>
+  </si>
+  <si>
+    <t>Synøve Nygaard Andersen</t>
+  </si>
+  <si>
+    <t>Terj Rasmussen</t>
+  </si>
+  <si>
+    <t>Terje Rasmussen</t>
+  </si>
+  <si>
+    <t>Terje Wessel</t>
+  </si>
+  <si>
+    <t>Thea Bertnes Strømme</t>
+  </si>
+  <si>
+    <t>Theodoros Rakopoulos</t>
+  </si>
+  <si>
+    <t>Thomas Ugelvik</t>
+  </si>
+  <si>
+    <t>Thora Bjørke Sandberg</t>
+  </si>
+  <si>
+    <t>Tina Andersen Vågenes</t>
+  </si>
+  <si>
+    <t>Tina Baier</t>
+  </si>
+  <si>
+    <t>Tine Ellen Sjøstedt</t>
+  </si>
+  <si>
+    <t>Tiril Mariero</t>
+  </si>
+  <si>
+    <t>Tone Ognedal</t>
+  </si>
+  <si>
+    <t>Torbjørn Skardhamar</t>
+  </si>
+  <si>
+    <t>Tore Wig</t>
+  </si>
+  <si>
+    <t>Tore Witsø Rafoss</t>
+  </si>
+  <si>
+    <t>Torkild Hovde Lyngstad</t>
+  </si>
+  <si>
+    <t>Trude Lappegård</t>
+  </si>
+  <si>
+    <t>Ulrikke Bryn Wethal</t>
+  </si>
+  <si>
+    <t>Ummay Habiba</t>
+  </si>
+  <si>
+    <t>Urd Sofie Kronstad Askim</t>
+  </si>
+  <si>
+    <t>Victor Lund Shammas</t>
+  </si>
+  <si>
+    <t>Vilde Blix Huseby</t>
+  </si>
+  <si>
+    <t>Yngve Solli Heiret</t>
+  </si>
+  <si>
+    <t>Øivind Bratberg</t>
+  </si>
+  <si>
+    <t>Øyvind Nicolay Wiborg</t>
+  </si>
+  <si>
+    <t>Karen Linda O'Brien</t>
+  </si>
+  <si>
+    <t>Peder Østring</t>
+  </si>
+  <si>
+    <t>Erik Børve Rasmussen</t>
+  </si>
+  <si>
+    <t>Lena Magnusson Turner</t>
+  </si>
+  <si>
+    <t>Marta Bivand Erland</t>
+  </si>
+  <si>
+    <t>Marianne Millstein</t>
+  </si>
+  <si>
+    <t>Marie Spelling</t>
+  </si>
+  <si>
+    <t>Sigtona Halrynjo</t>
+  </si>
+  <si>
+    <t>Hakke P. Eiling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Annen</t>
   </si>
   <si>
     <t xml:space="preserve">Aaron Ponce</t>
   </si>
   <si>
+    <t xml:space="preserve">Aas Pedersen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adrian Farner Rogne</t>
   </si>
   <si>
@@ -90,7 +664,7 @@
     <t xml:space="preserve">Agnes Louise Helleberg</t>
   </si>
   <si>
-    <t xml:space="preserve">Aleksander Årnes Madsen</t>
+    <t xml:space="preserve">Aleksander Madsen</t>
   </si>
   <si>
     <t xml:space="preserve">Alexi Gugushvili</t>
@@ -126,9 +700,6 @@
     <t xml:space="preserve">Annica My Linn Allvin</t>
   </si>
   <si>
-    <t xml:space="preserve">Anniken Hagelund</t>
-  </si>
-  <si>
     <t xml:space="preserve">Are Skeie Hermansen</t>
   </si>
   <si>
@@ -156,7 +727,7 @@
     <t xml:space="preserve">Beate Karlsen</t>
   </si>
   <si>
-    <t xml:space="preserve">Beatrice Irene Johannessen</t>
+    <t xml:space="preserve">Beatrice Johannessen</t>
   </si>
   <si>
     <t xml:space="preserve">Benedicte Bull</t>
@@ -186,7 +757,7 @@
     <t xml:space="preserve">Cathrine Holst</t>
   </si>
   <si>
-    <t xml:space="preserve">David Christoffer Jordhus-Lier</t>
+    <t xml:space="preserve">David Jordhus-Lier</t>
   </si>
   <si>
     <t xml:space="preserve">Edvard Nergård Larsen</t>
@@ -195,6 +766,9 @@
     <t xml:space="preserve">Ege Akinci</t>
   </si>
   <si>
+    <t xml:space="preserve">Eilert Sundt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eirik Jerven Berger</t>
   </si>
   <si>
@@ -207,12 +781,12 @@
     <t xml:space="preserve">Elias Nosrati</t>
   </si>
   <si>
-    <t xml:space="preserve">Elisa Brini</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elizabeth Anne Sibilia</t>
   </si>
   <si>
+    <t xml:space="preserve">Erik Børve Rasmussen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erik Carlquist</t>
   </si>
   <si>
@@ -246,6 +820,9 @@
     <t xml:space="preserve">Gunnar Bugge Helle</t>
   </si>
   <si>
+    <t xml:space="preserve">Hakke P. Eiling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haldor Byrkjeflot</t>
   </si>
   <si>
@@ -267,6 +844,9 @@
     <t xml:space="preserve">Hanne Giskehaug</t>
   </si>
   <si>
+    <t xml:space="preserve">Harriet Holter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hege Høyer Leivestad</t>
   </si>
   <si>
@@ -312,7 +892,7 @@
     <t xml:space="preserve">Jason Miklian</t>
   </si>
   <si>
-    <t xml:space="preserve">Jemima Victoria Garcia-Godos Naveda</t>
+    <t xml:space="preserve">Jemima Garcia-Godos Naveda</t>
   </si>
   <si>
     <t xml:space="preserve">Jo Thori Lind</t>
@@ -339,10 +919,7 @@
     <t xml:space="preserve">Julie Brevik Kolstad</t>
   </si>
   <si>
-    <t xml:space="preserve">Karen Linda O' Brien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen O'brien</t>
+    <t xml:space="preserve">Karen Linda O'Brien</t>
   </si>
   <si>
     <t xml:space="preserve">Karoline Blix Hjelle</t>
@@ -387,10 +964,13 @@
     <t xml:space="preserve">Laura Führer</t>
   </si>
   <si>
+    <t xml:space="preserve">Lena Magnusson Turner</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liridona Gashi</t>
   </si>
   <si>
-    <t xml:space="preserve">Magne Øyvind Paalgard Flemmen</t>
+    <t xml:space="preserve">Magne Paalgard Flemmen</t>
   </si>
   <si>
     <t xml:space="preserve">Malin Opdal Ligård</t>
@@ -408,9 +988,6 @@
     <t xml:space="preserve">Maren Ringstad</t>
   </si>
   <si>
-    <t xml:space="preserve">Maren Toft</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mari Teigen</t>
   </si>
   <si>
@@ -420,10 +997,19 @@
     <t xml:space="preserve">Marianne Elisabeth Lien</t>
   </si>
   <si>
+    <t xml:space="preserve">Marianne Millstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marianne Nordli Hansen</t>
   </si>
   <si>
-    <t xml:space="preserve">Marieke Elisabeth Van Der Star</t>
+    <t xml:space="preserve">Marie Spelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marieke Elisabeth van der Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marta Bivand Erland</t>
   </si>
   <si>
     <t xml:space="preserve">Marte Lund Saga</t>
@@ -444,12 +1030,12 @@
     <t xml:space="preserve">Mia Sivertsen</t>
   </si>
   <si>
+    <t xml:space="preserve">Michael Paul Gentile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michael James Frith</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael Paul Gentile</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nan Zou Bakkeli</t>
   </si>
   <si>
@@ -471,6 +1057,12 @@
     <t xml:space="preserve">Patrick Lie Andersen</t>
   </si>
   <si>
+    <t xml:space="preserve">Peder Aas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peder Østring</t>
+  </si>
+  <si>
     <t xml:space="preserve">Per Gunnar Røe</t>
   </si>
   <si>
@@ -501,9 +1093,6 @@
     <t xml:space="preserve">Rune Flikke</t>
   </si>
   <si>
-    <t xml:space="preserve">Russell Garner</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ruth Eva Jørgensen</t>
   </si>
   <si>
@@ -519,6 +1108,9 @@
     <t xml:space="preserve">Sigrun Marie Moss</t>
   </si>
   <si>
+    <t xml:space="preserve">Sigtona Halrynjo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sigurd Martin Nordli Oppegaard</t>
   </si>
   <si>
@@ -582,9 +1174,6 @@
     <t xml:space="preserve">Tina Andersen Vågenes</t>
   </si>
   <si>
-    <t xml:space="preserve">Tina Baier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tine Ellen Sjøstedt</t>
   </si>
   <si>
@@ -631,33 +1220,6 @@
   </si>
   <si>
     <t xml:space="preserve">Øyvind Nicolay Wiborg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen Linda O'Brien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peder Østring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik Børve Rasmussen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lena Magnusson Turner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marta Bivand Erland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marianne Millstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marie Spelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sigtona Halrynjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakke P. Eiling</t>
   </si>
 </sst>
 </file>
@@ -1002,977 +1564,972 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>336</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>340</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>199</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>349</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>358</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>373</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>375</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>376</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>378</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>379</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>386</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>387</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>388</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>390</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>197</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1981,7 +2538,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -2021,7 +2578,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2099,7 +2656,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2138,7 +2695,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2194,7 +2751,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2227,7 +2784,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2276,7 +2833,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2306,7 +2863,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2355,200 +2912,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B8700CBCA50F6A48B3B600B09E7F035B" ma:contentTypeVersion="6" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a5fab87c7f5a1ec1d463ec138369e20d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="860a3702-07f2-4958-bde0-2896fd856bae" xmlns:ns3="77cdddf6-21a8-44c6-90d4-2e1fdaa6540a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1743114db886595c86cf6e7002c97c2e" ns2:_="" ns3:_="">
-    <xsd:import namespace="860a3702-07f2-4958-bde0-2896fd856bae"/>
-    <xsd:import namespace="77cdddf6-21a8-44c6-90d4-2e1fdaa6540a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="860a3702-07f2-4958-bde0-2896fd856bae" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="77cdddf6-21a8-44c6-90d4-2e1fdaa6540a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innholdstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tittel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58BF81A-04B4-4702-A1AC-DAF912D3E109}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1413E0B-7F0C-4008-99FB-B62A11B30D62}"/>
 </file>